--- a/public/products.xlsx
+++ b/public/products.xlsx
@@ -1,32 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\projects\bitovuha\storage\app\public\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC11A61-13D0-45E9-8C14-FDD47483FEC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2250" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="15740" windowHeight="6760"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -54,10 +37,10 @@
     <t>л пуш</t>
   </si>
   <si>
+    <t>Средство для мытья стёкол и зеркал</t>
+  </si>
+  <si>
     <t>л триггер</t>
-  </si>
-  <si>
-    <t>Средство для мытья стёкол и зеркал</t>
   </si>
   <si>
     <t>Антижир</t>
@@ -123,24 +106,181 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -153,8 +293,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -164,48 +490,288 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -216,21 +782,67 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -279,7 +891,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -314,7 +926,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -488,246 +1100,259 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" ht="14.8" spans="1:8">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8">
+      <c r="B1" s="4">
         <v>105</v>
       </c>
-      <c r="C1" s="8">
+      <c r="C1" s="4">
         <v>92</v>
       </c>
       <c r="D1" s="5">
         <v>79</v>
       </c>
-      <c r="E1" s="8">
+      <c r="E1" s="4">
         <v>66</v>
       </c>
       <c r="F1" s="5">
         <v>0.5</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="G1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" ht="14.8" spans="1:8">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="4">
         <v>135</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="4">
         <v>116.67</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="4">
         <v>98.33</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="4">
         <v>80</v>
       </c>
       <c r="F2" s="5">
         <v>1</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="G2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="14.8" spans="1:8">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="4">
         <v>650</v>
       </c>
-      <c r="C3" s="8">
-        <v>538.33000000000004</v>
-      </c>
-      <c r="D3" s="8">
+      <c r="C3" s="4">
+        <v>538.33</v>
+      </c>
+      <c r="D3" s="4">
         <v>426.67</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="4">
         <v>315</v>
       </c>
       <c r="F3" s="5">
         <v>5</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="G3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="14.8" spans="1:8">
+      <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="4">
         <v>600</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="4">
         <v>477.33</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="4">
         <v>354.67</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="4">
         <v>232</v>
       </c>
       <c r="F4" s="5">
         <v>5</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H4" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="14.8" spans="1:8">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="7">
         <v>115</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="7">
         <v>100</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="7">
         <v>85</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <v>70</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="12">
         <v>0.5</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="H5" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="14.8" spans="1:8">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="4">
         <v>145</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="4">
         <v>125.67</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="4">
         <v>106.33</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="4">
         <v>87</v>
       </c>
       <c r="F6" s="5">
         <v>1</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="G6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="14.8" spans="1:8">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="8">
         <v>670</v>
       </c>
-      <c r="C7" s="8">
-        <v>563.33000000000004</v>
-      </c>
-      <c r="D7" s="10">
+      <c r="C7" s="4">
+        <v>563.33</v>
+      </c>
+      <c r="D7" s="8">
         <v>456.67</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="8">
         <v>350</v>
       </c>
       <c r="F7" s="5">
         <v>5</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="G7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="14.8" spans="1:8">
+      <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="8">
         <v>650</v>
       </c>
-      <c r="C8" s="8">
-        <v>521.66999999999996</v>
-      </c>
-      <c r="D8" s="10">
+      <c r="C8" s="4">
+        <v>521.67</v>
+      </c>
+      <c r="D8" s="8">
         <v>393.33</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="8">
         <v>265</v>
       </c>
       <c r="F8" s="5">
         <v>5</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H8" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="14.8" spans="1:8">
       <c r="A9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="7">
         <v>105</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="7">
         <v>91.33</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="7">
         <v>77.67</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="7">
         <v>64</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="12">
         <v>0.5</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="H9" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="14.8" spans="1:8">
+      <c r="A10" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="5">
@@ -748,17 +1373,19 @@
       <c r="G10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="H10" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="14.8" spans="1:8">
+      <c r="A11" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="5">
         <v>650</v>
       </c>
       <c r="C11" s="5">
-        <v>548.33000000000004</v>
+        <v>548.33</v>
       </c>
       <c r="D11" s="5">
         <v>446.67</v>
@@ -769,13 +1396,15 @@
       <c r="F11" s="5">
         <v>5</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="G11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="14.8" spans="1:8">
+      <c r="A12" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="5">
@@ -793,38 +1422,42 @@
       <c r="F12" s="5">
         <v>5</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H12" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="14.8" spans="1:8">
       <c r="A13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7">
+        <v>150</v>
+      </c>
+      <c r="C13" s="7">
+        <v>121.67</v>
+      </c>
+      <c r="D13" s="7">
+        <v>93.33</v>
+      </c>
+      <c r="E13" s="7">
+        <v>65</v>
+      </c>
+      <c r="F13" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="9">
-        <v>150</v>
-      </c>
-      <c r="C13" s="9">
-        <v>121.67</v>
-      </c>
-      <c r="D13" s="9">
-        <v>93.33</v>
-      </c>
-      <c r="E13" s="9">
-        <v>65</v>
-      </c>
-      <c r="F13" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="G13" s="6" t="s">
+      <c r="H13" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" ht="14.8" spans="1:8">
+      <c r="A14" s="9" t="s">
         <v>7</v>
-      </c>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>8</v>
       </c>
       <c r="B14" s="5">
         <v>405</v>
@@ -841,14 +1474,16 @@
       <c r="F14" s="5">
         <v>5</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>8</v>
+      <c r="G14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="14.8" spans="1:8">
+      <c r="A15" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="B15" s="5">
         <v>250</v>
@@ -865,37 +1500,41 @@
       <c r="F15" s="5">
         <v>5</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H15" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="14.8" spans="1:8">
       <c r="A16" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="7">
         <v>180</v>
       </c>
-      <c r="C16" s="9">
-        <v>154.66999999999999</v>
-      </c>
-      <c r="D16" s="9">
-        <v>129.33000000000001</v>
-      </c>
-      <c r="E16" s="9">
+      <c r="C16" s="7">
+        <v>154.67</v>
+      </c>
+      <c r="D16" s="7">
+        <v>129.33</v>
+      </c>
+      <c r="E16" s="7">
         <v>104</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="12">
         <v>0.5</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" ht="14.8" spans="1:8">
+      <c r="A17" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="5">
@@ -913,13 +1552,15 @@
       <c r="F17" s="5">
         <v>1</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="H17" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" ht="14.8" spans="1:8">
+      <c r="A18" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="5">
@@ -937,85 +1578,93 @@
       <c r="F18" s="5">
         <v>5</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="14.8" spans="1:8">
       <c r="A19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="7">
         <v>400</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="7">
         <v>331.66</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="7">
         <v>263.33</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="7">
         <v>195</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="12">
         <v>5</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H19" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="14.8" spans="1:8">
       <c r="A20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="7">
         <v>1500</v>
       </c>
-      <c r="C20" s="9">
-        <v>1186.6600000000001</v>
-      </c>
-      <c r="D20" s="9">
+      <c r="C20" s="7">
+        <v>1186.66</v>
+      </c>
+      <c r="D20" s="7">
         <v>873.33</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="7">
         <v>560</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="12">
         <v>5</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H20" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="14.8" spans="1:8">
       <c r="A21" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="7">
         <v>700</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="7">
         <v>586.66</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="7">
         <v>473.33</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="7">
         <v>360</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="12">
         <v>0.5</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="H21" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" ht="14.8" spans="1:8">
+      <c r="A22" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B22" s="5">
@@ -1033,565 +1682,614 @@
       <c r="F22" s="5">
         <v>5</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H22" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="14.8" spans="1:8">
       <c r="A23" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="7">
         <v>375</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="7">
         <v>298.33</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="7">
         <v>221.67</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="7">
         <v>145</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="12">
         <v>1.5</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:8" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="H23" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" s="2" customFormat="1" ht="14.8" spans="1:8">
+      <c r="A24" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="10">
         <v>550</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="10">
         <v>456.67</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="10">
         <v>363.33</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="10">
         <v>270</v>
       </c>
-      <c r="F24" s="13">
-        <v>5</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H24" s="14"/>
-    </row>
-    <row r="25" spans="1:8" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F24" s="14">
+        <v>5</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="14.8" spans="1:8">
       <c r="A25" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="7">
         <v>375</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="7">
         <v>301.67</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="7">
         <v>228.33</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="7">
         <v>155</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="12">
         <v>1.5</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="H25" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="1" ht="14.8" spans="1:8">
+      <c r="A26" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="10">
         <v>650</v>
       </c>
-      <c r="C26" s="12">
-        <v>537.33000000000004</v>
-      </c>
-      <c r="D26" s="12">
+      <c r="C26" s="10">
+        <v>537.33</v>
+      </c>
+      <c r="D26" s="10">
         <v>424.67</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="10">
         <v>312</v>
       </c>
-      <c r="F26" s="13">
-        <v>5</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H26" s="14"/>
-    </row>
-    <row r="27" spans="1:8" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F26" s="14">
+        <v>5</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="14.8" spans="1:8">
       <c r="A27" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="7">
         <v>405</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="7">
         <v>315</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="7">
         <v>225</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="7">
         <v>135</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="12">
         <v>1.5</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+      <c r="H27" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="1" ht="14.8" spans="1:8">
+      <c r="A28" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="10">
         <v>850</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="10">
         <v>650</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="10">
         <v>450</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="10">
         <v>250</v>
       </c>
-      <c r="F28" s="13">
-        <v>5</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H28" s="14"/>
-    </row>
-    <row r="29" spans="1:8" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F28" s="14">
+        <v>5</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H28" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="14.8" spans="1:8">
       <c r="A29" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="7">
         <v>500</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="7">
         <v>400</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="7">
         <v>300</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="7">
         <v>200</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="12">
         <v>5</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:8" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H29" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="14.8" spans="1:8">
       <c r="A30" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="7">
         <v>600</v>
       </c>
-      <c r="C30" s="9">
-        <v>516.66999999999996</v>
-      </c>
-      <c r="D30" s="9">
+      <c r="C30" s="7">
+        <v>516.67</v>
+      </c>
+      <c r="D30" s="7">
         <v>433.33</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="7">
         <v>350</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="12">
         <v>5</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:8" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H30" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="14.8" spans="1:8">
       <c r="A31" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31" s="7">
         <v>250</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="7">
         <v>208</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="7">
         <v>166</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="7">
         <v>124</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="12">
         <v>0.5</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="1:8" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
+      <c r="H31" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" s="2" customFormat="1" ht="14.8" spans="1:8">
+      <c r="A32" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B32" s="10">
         <v>350</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="10">
         <v>285</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D32" s="10">
         <v>220</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E32" s="10">
         <v>155</v>
       </c>
-      <c r="F32" s="13">
-        <v>1</v>
-      </c>
-      <c r="G32" s="11" t="s">
+      <c r="F32" s="14">
+        <v>1</v>
+      </c>
+      <c r="G32" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H32" s="14"/>
-    </row>
-    <row r="33" spans="1:8" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
+      <c r="H32" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" s="2" customFormat="1" ht="14.8" spans="1:8">
+      <c r="A33" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B33" s="10">
         <v>950</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="10">
         <v>797.67</v>
       </c>
-      <c r="D33" s="12">
-        <v>645.33000000000004</v>
-      </c>
-      <c r="E33" s="12">
+      <c r="D33" s="10">
+        <v>645.33</v>
+      </c>
+      <c r="E33" s="10">
         <v>493</v>
       </c>
-      <c r="F33" s="13">
-        <v>5</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H33" s="14"/>
-    </row>
-    <row r="34" spans="1:8" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F33" s="14">
+        <v>5</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H33" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" ht="14.8" spans="1:8">
       <c r="A34" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34" s="7">
         <v>250</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="7">
         <v>208</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="7">
         <v>166</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="7">
         <v>124</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="12">
         <v>0.5</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H34" s="2"/>
-    </row>
-    <row r="35" spans="1:8" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
+      <c r="H34" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" s="2" customFormat="1" ht="14.8" spans="1:8">
+      <c r="A35" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="12">
+      <c r="B35" s="10">
         <v>350</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="10">
         <v>285</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="10">
         <v>220</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E35" s="10">
         <v>155</v>
       </c>
-      <c r="F35" s="13">
-        <v>1</v>
-      </c>
-      <c r="G35" s="11" t="s">
+      <c r="F35" s="14">
+        <v>1</v>
+      </c>
+      <c r="G35" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H35" s="14"/>
-    </row>
-    <row r="36" spans="1:8" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
+      <c r="H35" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" s="2" customFormat="1" ht="14.8" spans="1:8">
+      <c r="A36" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="12">
+      <c r="B36" s="10">
         <v>950</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="10">
         <v>797.67</v>
       </c>
-      <c r="D36" s="12">
-        <v>645.33000000000004</v>
-      </c>
-      <c r="E36" s="12">
+      <c r="D36" s="10">
+        <v>645.33</v>
+      </c>
+      <c r="E36" s="10">
         <v>493</v>
       </c>
-      <c r="F36" s="13">
-        <v>5</v>
-      </c>
-      <c r="G36" s="11" t="s">
+      <c r="F36" s="14">
+        <v>5</v>
+      </c>
+      <c r="G36" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H36" s="14"/>
-    </row>
-    <row r="37" spans="1:8" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H36" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="14.8" spans="1:8">
       <c r="A37" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="9">
+      <c r="B37" s="7">
         <v>250</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="7">
         <v>208</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="7">
         <v>166</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="7">
         <v>124</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="12">
         <v>5</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H37" s="2"/>
-    </row>
-    <row r="38" spans="1:8" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H37" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" s="1" customFormat="1" ht="14.8" spans="1:8">
       <c r="A38" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="9">
+      <c r="B38" s="7">
         <v>100</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="7">
         <v>90</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="7">
         <v>80</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="7">
         <v>70</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="12">
         <v>5</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H38" s="2"/>
-    </row>
-    <row r="39" spans="1:8" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H38" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="1" ht="14.8" spans="1:8">
       <c r="A39" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="9">
+      <c r="B39" s="7">
         <v>60</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="7">
         <v>56</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="7">
         <v>52</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="7">
         <v>48</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="12">
         <v>0.5</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H39" s="2"/>
-    </row>
-    <row r="40" spans="1:8" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
+      <c r="H39" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" s="2" customFormat="1" ht="14.8" spans="1:8">
+      <c r="A40" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B40" s="12">
+      <c r="B40" s="10">
         <v>120</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C40" s="10">
         <v>98.83</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D40" s="10">
         <v>77.67</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E40" s="10">
         <v>56.5</v>
       </c>
-      <c r="F40" s="13">
-        <v>1</v>
-      </c>
-      <c r="G40" s="11" t="s">
+      <c r="F40" s="14">
+        <v>1</v>
+      </c>
+      <c r="G40" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H40" s="14"/>
-    </row>
-    <row r="41" spans="1:8" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
+      <c r="H40" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" s="2" customFormat="1" ht="14.8" spans="1:8">
+      <c r="A41" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="12">
+      <c r="B41" s="10">
         <v>400</v>
       </c>
-      <c r="C41" s="12">
+      <c r="C41" s="10">
         <v>333.33</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D41" s="10">
         <v>266.67</v>
       </c>
-      <c r="E41" s="12">
+      <c r="E41" s="10">
         <v>200</v>
       </c>
-      <c r="F41" s="13">
-        <v>5</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H41" s="14"/>
-    </row>
-    <row r="42" spans="1:8" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
+      <c r="F41" s="14">
+        <v>5</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H41" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" s="2" customFormat="1" ht="14.8" spans="1:8">
+      <c r="A42" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="12">
+      <c r="B42" s="10">
         <v>350</v>
       </c>
-      <c r="C42" s="12">
+      <c r="C42" s="10">
         <v>275</v>
       </c>
-      <c r="D42" s="12">
+      <c r="D42" s="10">
         <v>200</v>
       </c>
-      <c r="E42" s="12">
+      <c r="E42" s="10">
         <v>125</v>
       </c>
-      <c r="F42" s="13">
-        <v>5</v>
-      </c>
-      <c r="G42" s="11" t="s">
+      <c r="F42" s="14">
+        <v>5</v>
+      </c>
+      <c r="G42" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H42" s="14"/>
-    </row>
-    <row r="43" spans="1:8" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H42" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" s="1" customFormat="1" ht="14.8" spans="1:8">
       <c r="A43" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B43" s="9">
+      <c r="B43" s="7">
         <v>520</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="7">
         <v>433</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="7">
         <v>347</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E43" s="7">
         <v>260</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F43" s="12">
         <v>5</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H43" s="2"/>
-    </row>
-    <row r="44" spans="1:8" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H43" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" s="1" customFormat="1" ht="14.8" spans="1:8">
       <c r="A44" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="9">
+      <c r="B44" s="7">
         <v>750</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C44" s="7">
         <v>625</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44" s="7">
         <v>500</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E44" s="7">
         <v>375</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F44" s="12">
         <v>5</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H44" s="2"/>
-    </row>
-    <row r="45" spans="1:8" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H44" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" s="1" customFormat="1" ht="14.8" spans="1:8">
       <c r="A45" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B45" s="9">
+      <c r="B45" s="7">
         <v>1370</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C45" s="7">
         <v>1141</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D45" s="7">
         <v>913</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E45" s="7">
         <v>685</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45" s="12">
         <v>5</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H45" s="2"/>
+      <c r="H45" s="13">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>